--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem2/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem2/67/word_level_predictions_67.xlsx
@@ -577,81 +577,81 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>IMU calibration required Calibrate IMU .</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>required</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>IMU calibration required Calibrate IMU .</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>required</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -941,7 +941,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G10" s="2" t="b">
@@ -965,7 +965,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G11" s="2" t="b">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G12" s="2" t="b">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G15" s="2" t="b">
@@ -1213,11 +1213,11 @@
         </is>
       </c>
       <c r="I15" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K15" s="2" t="b">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1265,11 +1265,11 @@
         </is>
       </c>
       <c r="I16" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K16" s="2" t="b">
@@ -1317,11 +1317,11 @@
         </is>
       </c>
       <c r="I17" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K17" s="2" t="b">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G18" s="2" t="b">
@@ -1369,11 +1369,11 @@
         </is>
       </c>
       <c r="I18" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K18" s="2" t="b">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1421,11 +1421,11 @@
         </is>
       </c>
       <c r="I19" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K19" s="2" t="b">
@@ -1473,11 +1473,11 @@
         </is>
       </c>
       <c r="I20" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K20" s="2" t="b">
@@ -1525,11 +1525,11 @@
         </is>
       </c>
       <c r="I21" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K21" s="2" t="b">
@@ -2426,418 +2426,418 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
+      <c r="A39" t="n">
         <v>3</v>
       </c>
-      <c r="B39" s="2" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C39" s="2" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>Go</t>
         </is>
       </c>
-      <c r="D39" s="2" t="n">
+      <c r="D39" t="n">
         <v>3</v>
       </c>
-      <c r="E39" s="2" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F39" s="2" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G39" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I39" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K39" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L39" s="2" t="inlineStr">
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K39" t="b">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
+      <c r="A40" t="n">
         <v>3</v>
       </c>
-      <c r="B40" s="2" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C40" s="2" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D40" s="2" t="n">
+      <c r="D40" t="n">
         <v>4</v>
       </c>
-      <c r="E40" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F40" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G40" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I40" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K40" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L40" s="2" t="inlineStr">
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I40" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K40" t="b">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
+      <c r="A41" t="n">
         <v>3</v>
       </c>
-      <c r="B41" s="2" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C41" s="2" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>Profile</t>
         </is>
       </c>
-      <c r="D41" s="2" t="n">
+      <c r="D41" t="n">
         <v>5</v>
       </c>
-      <c r="E41" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F41" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G41" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I41" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K41" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L41" s="2" t="inlineStr">
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I41" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K41" t="b">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
+      <c r="A42" t="n">
         <v>3</v>
       </c>
-      <c r="B42" s="2" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C42" s="2" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>&gt;</t>
         </is>
       </c>
-      <c r="D42" s="2" t="n">
+      <c r="D42" t="n">
         <v>6</v>
       </c>
-      <c r="E42" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F42" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G42" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I42" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K42" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L42" s="2" t="inlineStr">
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I42" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K42" t="b">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
+      <c r="A43" t="n">
         <v>3</v>
       </c>
-      <c r="B43" s="2" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C43" s="2" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>Settings</t>
         </is>
       </c>
-      <c r="D43" s="2" t="n">
+      <c r="D43" t="n">
         <v>7</v>
       </c>
-      <c r="E43" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F43" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G43" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L43" s="2" t="inlineStr">
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
+      <c r="A44" t="n">
         <v>3</v>
       </c>
-      <c r="B44" s="2" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C44" s="2" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D44" s="2" t="n">
+      <c r="D44" t="n">
         <v>8</v>
       </c>
-      <c r="E44" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F44" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G44" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I44" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K44" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L44" s="2" t="inlineStr">
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
+      <c r="A45" t="n">
         <v>3</v>
       </c>
-      <c r="B45" s="2" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C45" s="2" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>update</t>
         </is>
       </c>
-      <c r="D45" s="2" t="n">
+      <c r="D45" t="n">
         <v>9</v>
       </c>
-      <c r="E45" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F45" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G45" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L45" s="2" t="inlineStr">
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I45" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K45" t="b">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
+      <c r="A46" t="n">
         <v>3</v>
       </c>
-      <c r="B46" s="2" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C46" s="2" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>firmware</t>
         </is>
       </c>
-      <c r="D46" s="2" t="n">
+      <c r="D46" t="n">
         <v>10</v>
       </c>
-      <c r="E46" s="2" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F46" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G46" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L46" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K46" t="b">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10977,7 +10977,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G203" t="b">
@@ -11001,57 +11001,57 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="n">
+      <c r="A204" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B204" s="2" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C204" s="2" t="inlineStr">
         <is>
           <t>off</t>
         </is>
       </c>
-      <c r="D204" t="n">
+      <c r="D204" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E204" t="inlineStr">
+      <c r="E204" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
+      <c r="F204" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G204" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I204" t="b">
-        <v>1</v>
-      </c>
-      <c r="J204" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K204" t="b">
-        <v>1</v>
-      </c>
-      <c r="L204" t="inlineStr">
+      <c r="G204" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I204" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J204" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K204" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L204" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11289,7 +11289,7 @@
       </c>
       <c r="F209" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G209" s="2" t="b">
@@ -11313,7 +11313,7 @@
       </c>
       <c r="L209" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11705,7 +11705,7 @@
       </c>
       <c r="F217" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G217" s="2" t="b">
@@ -11729,7 +11729,7 @@
       </c>
       <c r="L217" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -20522,210 +20522,210 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" s="2" t="n">
+      <c r="A387" t="n">
         <v>35</v>
       </c>
-      <c r="B387" s="2" t="inlineStr">
+      <c r="B387" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C387" s="2" t="inlineStr">
+      <c r="C387" t="inlineStr">
         <is>
           <t>Insufficient</t>
         </is>
       </c>
-      <c r="D387" s="2" t="n">
+      <c r="D387" t="n">
         <v>0</v>
       </c>
-      <c r="E387" s="2" t="inlineStr">
+      <c r="E387" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F387" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G387" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H387" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I387" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J387" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K387" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L387" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G387" t="b">
+        <v>1</v>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I387" t="b">
+        <v>1</v>
+      </c>
+      <c r="J387" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K387" t="b">
+        <v>1</v>
+      </c>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="388">
-      <c r="A388" s="2" t="n">
+      <c r="A388" t="n">
         <v>35</v>
       </c>
-      <c r="B388" s="2" t="inlineStr">
+      <c r="B388" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C388" s="2" t="inlineStr">
+      <c r="C388" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="D388" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E388" s="2" t="inlineStr">
+      <c r="D388" t="n">
+        <v>1</v>
+      </c>
+      <c r="E388" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F388" s="2" t="inlineStr">
+      <c r="F388" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G388" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H388" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I388" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J388" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K388" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L388" s="2" t="inlineStr">
+      <c r="G388" t="b">
+        <v>1</v>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I388" t="b">
+        <v>1</v>
+      </c>
+      <c r="J388" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K388" t="b">
+        <v>1</v>
+      </c>
+      <c r="L388" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="389">
-      <c r="A389" s="2" t="n">
+      <c r="A389" t="n">
         <v>35</v>
       </c>
-      <c r="B389" s="2" t="inlineStr">
+      <c r="B389" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C389" s="2" t="inlineStr">
+      <c r="C389" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="D389" s="2" t="n">
+      <c r="D389" t="n">
         <v>2</v>
       </c>
-      <c r="E389" s="2" t="inlineStr">
+      <c r="E389" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F389" s="2" t="inlineStr">
+      <c r="F389" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G389" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H389" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I389" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J389" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K389" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L389" s="2" t="inlineStr">
+      <c r="G389" t="b">
+        <v>1</v>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I389" t="b">
+        <v>1</v>
+      </c>
+      <c r="J389" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K389" t="b">
+        <v>1</v>
+      </c>
+      <c r="L389" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="390">
-      <c r="A390" s="2" t="n">
+      <c r="A390" t="n">
         <v>35</v>
       </c>
-      <c r="B390" s="2" t="inlineStr">
+      <c r="B390" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C390" s="2" t="inlineStr">
+      <c r="C390" t="inlineStr">
         <is>
           <t>space</t>
         </is>
       </c>
-      <c r="D390" s="2" t="n">
+      <c r="D390" t="n">
         <v>3</v>
       </c>
-      <c r="E390" s="2" t="inlineStr">
+      <c r="E390" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F390" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G390" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H390" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I390" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J390" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K390" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L390" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G390" t="b">
+        <v>1</v>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I390" t="b">
+        <v>1</v>
+      </c>
+      <c r="J390" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K390" t="b">
+        <v>1</v>
+      </c>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20753,7 +20753,7 @@
       </c>
       <c r="F391" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G391" s="2" t="b">
@@ -20765,11 +20765,11 @@
         </is>
       </c>
       <c r="I391" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J391" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K391" s="2" t="b">
@@ -20777,7 +20777,7 @@
       </c>
       <c r="L391" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20817,11 +20817,11 @@
         </is>
       </c>
       <c r="I392" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J392" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K392" s="2" t="b">
@@ -20869,11 +20869,11 @@
         </is>
       </c>
       <c r="I393" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J393" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K393" s="2" t="b">
@@ -20921,11 +20921,11 @@
         </is>
       </c>
       <c r="I394" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J394" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K394" s="2" t="b">
@@ -20973,11 +20973,11 @@
         </is>
       </c>
       <c r="I395" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J395" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K395" s="2" t="b">
@@ -21042,158 +21042,158 @@
       </c>
     </row>
     <row r="397">
-      <c r="A397" s="2" t="n">
+      <c r="A397" t="n">
         <v>36</v>
       </c>
-      <c r="B397" s="2" t="inlineStr">
+      <c r="B397" t="inlineStr">
         <is>
           <t>Aircraft power insufficient Fly with caution .</t>
         </is>
       </c>
-      <c r="C397" s="2" t="inlineStr">
+      <c r="C397" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D397" s="2" t="n">
+      <c r="D397" t="n">
         <v>0</v>
       </c>
-      <c r="E397" s="2" t="inlineStr">
+      <c r="E397" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F397" s="2" t="inlineStr">
+      <c r="F397" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G397" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H397" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I397" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J397" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K397" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L397" s="2" t="inlineStr">
+      <c r="G397" t="b">
+        <v>1</v>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I397" t="b">
+        <v>1</v>
+      </c>
+      <c r="J397" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K397" t="b">
+        <v>1</v>
+      </c>
+      <c r="L397" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="398">
-      <c r="A398" s="2" t="n">
+      <c r="A398" t="n">
         <v>36</v>
       </c>
-      <c r="B398" s="2" t="inlineStr">
+      <c r="B398" t="inlineStr">
         <is>
           <t>Aircraft power insufficient Fly with caution .</t>
         </is>
       </c>
-      <c r="C398" s="2" t="inlineStr">
+      <c r="C398" t="inlineStr">
         <is>
           <t>power</t>
         </is>
       </c>
-      <c r="D398" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E398" s="2" t="inlineStr">
+      <c r="D398" t="n">
+        <v>1</v>
+      </c>
+      <c r="E398" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F398" s="2" t="inlineStr">
+      <c r="F398" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G398" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H398" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I398" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J398" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K398" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L398" s="2" t="inlineStr">
+      <c r="G398" t="b">
+        <v>1</v>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I398" t="b">
+        <v>1</v>
+      </c>
+      <c r="J398" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K398" t="b">
+        <v>1</v>
+      </c>
+      <c r="L398" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="399">
-      <c r="A399" s="2" t="n">
+      <c r="A399" t="n">
         <v>36</v>
       </c>
-      <c r="B399" s="2" t="inlineStr">
+      <c r="B399" t="inlineStr">
         <is>
           <t>Aircraft power insufficient Fly with caution .</t>
         </is>
       </c>
-      <c r="C399" s="2" t="inlineStr">
+      <c r="C399" t="inlineStr">
         <is>
           <t>insufficient</t>
         </is>
       </c>
-      <c r="D399" s="2" t="n">
+      <c r="D399" t="n">
         <v>2</v>
       </c>
-      <c r="E399" s="2" t="inlineStr">
+      <c r="E399" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F399" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G399" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H399" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I399" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J399" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K399" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L399" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G399" t="b">
+        <v>1</v>
+      </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I399" t="b">
+        <v>1</v>
+      </c>
+      <c r="J399" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K399" t="b">
+        <v>1</v>
+      </c>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -24237,7 +24237,7 @@
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G458" t="b">
@@ -24261,59 +24261,59 @@
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="459">
-      <c r="A459" s="2" t="n">
+      <c r="A459" t="n">
         <v>42</v>
       </c>
-      <c r="B459" s="2" t="inlineStr">
+      <c r="B459" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C459" s="2" t="inlineStr">
+      <c r="C459" t="inlineStr">
         <is>
           <t>Temp</t>
         </is>
       </c>
-      <c r="D459" s="2" t="n">
+      <c r="D459" t="n">
         <v>2</v>
       </c>
-      <c r="E459" s="2" t="inlineStr">
+      <c r="E459" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F459" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G459" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H459" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I459" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J459" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K459" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L459" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G459" t="b">
+        <v>1</v>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I459" t="b">
+        <v>1</v>
+      </c>
+      <c r="J459" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K459" t="b">
+        <v>1</v>
+      </c>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -24341,7 +24341,7 @@
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G460" t="b">
@@ -24365,7 +24365,7 @@
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -25878,366 +25878,366 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" s="2" t="n">
+      <c r="A490" t="n">
         <v>45</v>
       </c>
-      <c r="B490" s="2" t="inlineStr">
+      <c r="B490" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C490" s="2" t="inlineStr">
+      <c r="C490" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D490" s="2" t="n">
+      <c r="D490" t="n">
         <v>7</v>
       </c>
-      <c r="E490" s="2" t="inlineStr">
+      <c r="E490" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F490" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G490" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H490" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I490" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J490" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K490" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L490" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G490" t="b">
+        <v>1</v>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I490" t="b">
+        <v>1</v>
+      </c>
+      <c r="J490" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K490" t="b">
+        <v>1</v>
+      </c>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="491">
-      <c r="A491" s="2" t="n">
+      <c r="A491" t="n">
         <v>45</v>
       </c>
-      <c r="B491" s="2" t="inlineStr">
+      <c r="B491" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C491" s="2" t="inlineStr">
+      <c r="C491" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D491" s="2" t="n">
+      <c r="D491" t="n">
         <v>8</v>
       </c>
-      <c r="E491" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F491" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G491" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H491" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I491" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J491" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K491" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L491" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G491" t="b">
+        <v>1</v>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I491" t="b">
+        <v>1</v>
+      </c>
+      <c r="J491" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K491" t="b">
+        <v>1</v>
+      </c>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="492">
-      <c r="A492" s="2" t="n">
+      <c r="A492" t="n">
         <v>45</v>
       </c>
-      <c r="B492" s="2" t="inlineStr">
+      <c r="B492" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C492" s="2" t="inlineStr">
+      <c r="C492" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D492" s="2" t="n">
+      <c r="D492" t="n">
         <v>9</v>
       </c>
-      <c r="E492" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F492" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G492" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H492" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I492" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J492" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K492" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L492" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G492" t="b">
+        <v>1</v>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I492" t="b">
+        <v>1</v>
+      </c>
+      <c r="J492" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K492" t="b">
+        <v>1</v>
+      </c>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="493">
-      <c r="A493" s="2" t="n">
+      <c r="A493" t="n">
         <v>45</v>
       </c>
-      <c r="B493" s="2" t="inlineStr">
+      <c r="B493" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C493" s="2" t="inlineStr">
+      <c r="C493" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D493" s="2" t="n">
+      <c r="D493" t="n">
         <v>10</v>
       </c>
-      <c r="E493" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F493" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G493" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H493" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I493" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J493" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K493" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L493" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G493" t="b">
+        <v>1</v>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I493" t="b">
+        <v>1</v>
+      </c>
+      <c r="J493" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K493" t="b">
+        <v>1</v>
+      </c>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="494">
-      <c r="A494" s="2" t="n">
+      <c r="A494" t="n">
         <v>45</v>
       </c>
-      <c r="B494" s="2" t="inlineStr">
+      <c r="B494" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C494" s="2" t="inlineStr">
+      <c r="C494" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D494" s="2" t="n">
+      <c r="D494" t="n">
         <v>11</v>
       </c>
-      <c r="E494" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F494" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G494" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H494" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I494" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J494" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K494" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L494" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G494" t="b">
+        <v>1</v>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I494" t="b">
+        <v>1</v>
+      </c>
+      <c r="J494" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K494" t="b">
+        <v>1</v>
+      </c>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="495">
-      <c r="A495" s="2" t="n">
+      <c r="A495" t="n">
         <v>45</v>
       </c>
-      <c r="B495" s="2" t="inlineStr">
+      <c r="B495" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C495" s="2" t="inlineStr">
+      <c r="C495" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D495" s="2" t="n">
+      <c r="D495" t="n">
         <v>12</v>
       </c>
-      <c r="E495" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F495" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G495" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H495" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I495" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J495" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K495" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L495" s="2" t="inlineStr">
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G495" t="b">
+        <v>1</v>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I495" t="b">
+        <v>1</v>
+      </c>
+      <c r="J495" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K495" t="b">
+        <v>1</v>
+      </c>
+      <c r="L495" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="496">
-      <c r="A496" s="2" t="n">
+      <c r="A496" t="n">
         <v>45</v>
       </c>
-      <c r="B496" s="2" t="inlineStr">
+      <c r="B496" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C496" s="2" t="inlineStr">
+      <c r="C496" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D496" s="2" t="n">
+      <c r="D496" t="n">
         <v>13</v>
       </c>
-      <c r="E496" s="2" t="inlineStr">
+      <c r="E496" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F496" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G496" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H496" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I496" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J496" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K496" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L496" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G496" t="b">
+        <v>1</v>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I496" t="b">
+        <v>1</v>
+      </c>
+      <c r="J496" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K496" t="b">
+        <v>1</v>
+      </c>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem2/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem2/67/word_level_predictions_67.xlsx
@@ -577,7 +577,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G3" t="b">
@@ -601,57 +601,57 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="A4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>IMU calibration required Calibrate IMU .</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>required</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="G4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -941,7 +941,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G10" s="2" t="b">
@@ -965,7 +965,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G11" s="2" t="b">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G12" s="2" t="b">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G15" s="2" t="b">
@@ -1213,11 +1213,11 @@
         </is>
       </c>
       <c r="I15" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K15" s="2" t="b">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1265,11 +1265,11 @@
         </is>
       </c>
       <c r="I16" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K16" s="2" t="b">
@@ -1317,11 +1317,11 @@
         </is>
       </c>
       <c r="I17" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K17" s="2" t="b">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G18" s="2" t="b">
@@ -1369,11 +1369,11 @@
         </is>
       </c>
       <c r="I18" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K18" s="2" t="b">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1421,11 +1421,11 @@
         </is>
       </c>
       <c r="I19" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K19" s="2" t="b">
@@ -1473,11 +1473,11 @@
         </is>
       </c>
       <c r="I20" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K20" s="2" t="b">
@@ -1525,11 +1525,11 @@
         </is>
       </c>
       <c r="I21" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K21" s="2" t="b">
@@ -2426,418 +2426,418 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C39" s="2" t="inlineStr">
         <is>
           <t>Go</t>
         </is>
       </c>
-      <c r="D39" t="n">
+      <c r="D39" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E39" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F39" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I39" t="b">
-        <v>1</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K39" t="b">
-        <v>1</v>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="G39" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
+      <c r="A40" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C40" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D40" t="n">
+      <c r="D40" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I40" t="b">
-        <v>1</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K40" t="b">
-        <v>1</v>
-      </c>
-      <c r="L40" t="inlineStr">
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
+      <c r="A41" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C41" s="2" t="inlineStr">
         <is>
           <t>Profile</t>
         </is>
       </c>
-      <c r="D41" t="n">
+      <c r="D41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I41" t="b">
-        <v>1</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K41" t="b">
-        <v>1</v>
-      </c>
-      <c r="L41" t="inlineStr">
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
+      <c r="A42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C42" s="2" t="inlineStr">
         <is>
           <t>&gt;</t>
         </is>
       </c>
-      <c r="D42" t="n">
+      <c r="D42" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I42" t="b">
-        <v>1</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K42" t="b">
-        <v>1</v>
-      </c>
-      <c r="L42" t="inlineStr">
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
+      <c r="A43" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C43" s="2" t="inlineStr">
         <is>
           <t>Settings</t>
         </is>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I43" t="b">
-        <v>1</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K43" t="b">
-        <v>1</v>
-      </c>
-      <c r="L43" t="inlineStr">
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
+      <c r="A44" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C44" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I44" t="b">
-        <v>1</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K44" t="b">
-        <v>1</v>
-      </c>
-      <c r="L44" t="inlineStr">
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
+      <c r="A45" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C45" s="2" t="inlineStr">
         <is>
           <t>update</t>
         </is>
       </c>
-      <c r="D45" t="n">
+      <c r="D45" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G45" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I45" t="b">
-        <v>1</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K45" t="b">
-        <v>1</v>
-      </c>
-      <c r="L45" t="inlineStr">
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
+      <c r="A46" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C46" s="2" t="inlineStr">
         <is>
           <t>firmware</t>
         </is>
       </c>
-      <c r="D46" t="n">
+      <c r="D46" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E46" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K46" t="b">
-        <v>1</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -10977,81 +10977,81 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G203" t="b">
+        <v>1</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I203" t="b">
+        <v>1</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K203" t="b">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>19</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Running Flight Simulator Restart aircraft to take off .</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>7</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G203" t="b">
-        <v>1</v>
-      </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I203" t="b">
-        <v>1</v>
-      </c>
-      <c r="J203" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K203" t="b">
-        <v>1</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B204" s="2" t="inlineStr">
-        <is>
-          <t>Running Flight Simulator Restart aircraft to take off .</t>
-        </is>
-      </c>
-      <c r="C204" s="2" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="D204" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E204" s="2" t="inlineStr">
+      <c r="F204" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F204" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G204" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I204" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J204" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K204" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L204" s="2" t="inlineStr">
+      <c r="G204" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I204" t="b">
+        <v>1</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K204" t="b">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11289,7 +11289,7 @@
       </c>
       <c r="F209" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G209" s="2" t="b">
@@ -11313,7 +11313,7 @@
       </c>
       <c r="L209" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11705,7 +11705,7 @@
       </c>
       <c r="F217" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G217" s="2" t="b">
@@ -11729,7 +11729,7 @@
       </c>
       <c r="L217" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20522,210 +20522,210 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" t="n">
+      <c r="A387" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B387" t="inlineStr">
+      <c r="B387" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C387" t="inlineStr">
+      <c r="C387" s="2" t="inlineStr">
         <is>
           <t>Insufficient</t>
         </is>
       </c>
-      <c r="D387" t="n">
-        <v>0</v>
-      </c>
-      <c r="E387" t="inlineStr">
+      <c r="D387" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E387" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F387" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G387" t="b">
-        <v>1</v>
-      </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I387" t="b">
-        <v>1</v>
-      </c>
-      <c r="J387" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K387" t="b">
-        <v>1</v>
-      </c>
-      <c r="L387" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F387" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G387" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H387" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I387" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J387" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K387" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L387" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="388">
-      <c r="A388" t="n">
+      <c r="A388" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B388" t="inlineStr">
+      <c r="B388" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C388" t="inlineStr">
+      <c r="C388" s="2" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="D388" t="n">
-        <v>1</v>
-      </c>
-      <c r="E388" t="inlineStr">
+      <c r="D388" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E388" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F388" t="inlineStr">
+      <c r="F388" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G388" t="b">
-        <v>1</v>
-      </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I388" t="b">
-        <v>1</v>
-      </c>
-      <c r="J388" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K388" t="b">
-        <v>1</v>
-      </c>
-      <c r="L388" t="inlineStr">
+      <c r="G388" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H388" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I388" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J388" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K388" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L388" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="389">
-      <c r="A389" t="n">
+      <c r="A389" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B389" t="inlineStr">
+      <c r="B389" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C389" t="inlineStr">
+      <c r="C389" s="2" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="D389" t="n">
+      <c r="D389" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E389" t="inlineStr">
+      <c r="E389" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F389" t="inlineStr">
+      <c r="F389" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G389" t="b">
-        <v>1</v>
-      </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I389" t="b">
-        <v>1</v>
-      </c>
-      <c r="J389" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K389" t="b">
-        <v>1</v>
-      </c>
-      <c r="L389" t="inlineStr">
+      <c r="G389" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H389" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I389" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J389" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K389" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L389" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="390">
-      <c r="A390" t="n">
+      <c r="A390" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B390" t="inlineStr">
+      <c r="B390" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C390" t="inlineStr">
+      <c r="C390" s="2" t="inlineStr">
         <is>
           <t>space</t>
         </is>
       </c>
-      <c r="D390" t="n">
+      <c r="D390" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E390" t="inlineStr">
+      <c r="E390" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F390" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G390" t="b">
-        <v>1</v>
-      </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I390" t="b">
-        <v>1</v>
-      </c>
-      <c r="J390" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K390" t="b">
-        <v>1</v>
-      </c>
-      <c r="L390" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F390" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G390" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H390" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I390" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J390" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K390" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L390" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -20753,7 +20753,7 @@
       </c>
       <c r="F391" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G391" s="2" t="b">
@@ -20765,11 +20765,11 @@
         </is>
       </c>
       <c r="I391" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J391" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K391" s="2" t="b">
@@ -20777,7 +20777,7 @@
       </c>
       <c r="L391" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -20817,11 +20817,11 @@
         </is>
       </c>
       <c r="I392" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J392" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K392" s="2" t="b">
@@ -20869,11 +20869,11 @@
         </is>
       </c>
       <c r="I393" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J393" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K393" s="2" t="b">
@@ -20921,11 +20921,11 @@
         </is>
       </c>
       <c r="I394" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J394" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K394" s="2" t="b">
@@ -20973,11 +20973,11 @@
         </is>
       </c>
       <c r="I395" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J395" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K395" s="2" t="b">
@@ -21042,158 +21042,158 @@
       </c>
     </row>
     <row r="397">
-      <c r="A397" t="n">
+      <c r="A397" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="B397" t="inlineStr">
+      <c r="B397" s="2" t="inlineStr">
         <is>
           <t>Aircraft power insufficient Fly with caution .</t>
         </is>
       </c>
-      <c r="C397" t="inlineStr">
+      <c r="C397" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D397" t="n">
-        <v>0</v>
-      </c>
-      <c r="E397" t="inlineStr">
+      <c r="D397" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E397" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F397" t="inlineStr">
+      <c r="F397" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G397" t="b">
-        <v>1</v>
-      </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I397" t="b">
-        <v>1</v>
-      </c>
-      <c r="J397" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K397" t="b">
-        <v>1</v>
-      </c>
-      <c r="L397" t="inlineStr">
+      <c r="G397" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H397" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I397" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J397" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K397" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L397" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="398">
-      <c r="A398" t="n">
+      <c r="A398" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="B398" t="inlineStr">
+      <c r="B398" s="2" t="inlineStr">
         <is>
           <t>Aircraft power insufficient Fly with caution .</t>
         </is>
       </c>
-      <c r="C398" t="inlineStr">
+      <c r="C398" s="2" t="inlineStr">
         <is>
           <t>power</t>
         </is>
       </c>
-      <c r="D398" t="n">
-        <v>1</v>
-      </c>
-      <c r="E398" t="inlineStr">
+      <c r="D398" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E398" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F398" t="inlineStr">
+      <c r="F398" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G398" t="b">
-        <v>1</v>
-      </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I398" t="b">
-        <v>1</v>
-      </c>
-      <c r="J398" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K398" t="b">
-        <v>1</v>
-      </c>
-      <c r="L398" t="inlineStr">
+      <c r="G398" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H398" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I398" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J398" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K398" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L398" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="399">
-      <c r="A399" t="n">
+      <c r="A399" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="B399" t="inlineStr">
+      <c r="B399" s="2" t="inlineStr">
         <is>
           <t>Aircraft power insufficient Fly with caution .</t>
         </is>
       </c>
-      <c r="C399" t="inlineStr">
+      <c r="C399" s="2" t="inlineStr">
         <is>
           <t>insufficient</t>
         </is>
       </c>
-      <c r="D399" t="n">
+      <c r="D399" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E399" t="inlineStr">
+      <c r="E399" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F399" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G399" t="b">
-        <v>1</v>
-      </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I399" t="b">
-        <v>1</v>
-      </c>
-      <c r="J399" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K399" t="b">
-        <v>1</v>
-      </c>
-      <c r="L399" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F399" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G399" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H399" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I399" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J399" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K399" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L399" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -24237,83 +24237,83 @@
       </c>
       <c r="F458" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G458" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I458" t="b">
+        <v>1</v>
+      </c>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K458" t="b">
+        <v>1</v>
+      </c>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B459" s="2" t="inlineStr">
+        <is>
+          <t>Compass Interference Temp Max Altitude 98ft .</t>
+        </is>
+      </c>
+      <c r="C459" s="2" t="inlineStr">
+        <is>
+          <t>Temp</t>
+        </is>
+      </c>
+      <c r="D459" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E459" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F459" s="2" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G458" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I458" t="b">
-        <v>1</v>
-      </c>
-      <c r="J458" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K458" t="b">
-        <v>1</v>
-      </c>
-      <c r="L458" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" t="n">
-        <v>42</v>
-      </c>
-      <c r="B459" t="inlineStr">
-        <is>
-          <t>Compass Interference Temp Max Altitude 98ft .</t>
-        </is>
-      </c>
-      <c r="C459" t="inlineStr">
-        <is>
-          <t>Temp</t>
-        </is>
-      </c>
-      <c r="D459" t="n">
-        <v>2</v>
-      </c>
-      <c r="E459" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F459" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G459" t="b">
-        <v>1</v>
-      </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I459" t="b">
-        <v>1</v>
-      </c>
-      <c r="J459" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K459" t="b">
-        <v>1</v>
-      </c>
-      <c r="L459" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="G459" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H459" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I459" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J459" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K459" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L459" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -24341,7 +24341,7 @@
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G460" t="b">
@@ -24365,7 +24365,7 @@
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
@@ -25878,366 +25878,366 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" t="n">
+      <c r="A490" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B490" t="inlineStr">
+      <c r="B490" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C490" t="inlineStr">
+      <c r="C490" s="2" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D490" t="n">
+      <c r="D490" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E490" t="inlineStr">
+      <c r="E490" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F490" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G490" t="b">
-        <v>1</v>
-      </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I490" t="b">
-        <v>1</v>
-      </c>
-      <c r="J490" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K490" t="b">
-        <v>1</v>
-      </c>
-      <c r="L490" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F490" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G490" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H490" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I490" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J490" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K490" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L490" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="491">
-      <c r="A491" t="n">
+      <c r="A491" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B491" t="inlineStr">
+      <c r="B491" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C491" t="inlineStr">
+      <c r="C491" s="2" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D491" t="n">
+      <c r="D491" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E491" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F491" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G491" t="b">
-        <v>1</v>
-      </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I491" t="b">
-        <v>1</v>
-      </c>
-      <c r="J491" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K491" t="b">
-        <v>1</v>
-      </c>
-      <c r="L491" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E491" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F491" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G491" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H491" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I491" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J491" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K491" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L491" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="492">
-      <c r="A492" t="n">
+      <c r="A492" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B492" t="inlineStr">
+      <c r="B492" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C492" t="inlineStr">
+      <c r="C492" s="2" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D492" t="n">
+      <c r="D492" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E492" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F492" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G492" t="b">
-        <v>1</v>
-      </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I492" t="b">
-        <v>1</v>
-      </c>
-      <c r="J492" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K492" t="b">
-        <v>1</v>
-      </c>
-      <c r="L492" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E492" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F492" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G492" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H492" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I492" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J492" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K492" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L492" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="493">
-      <c r="A493" t="n">
+      <c r="A493" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B493" t="inlineStr">
+      <c r="B493" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C493" t="inlineStr">
+      <c r="C493" s="2" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D493" t="n">
+      <c r="D493" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E493" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F493" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G493" t="b">
-        <v>1</v>
-      </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I493" t="b">
-        <v>1</v>
-      </c>
-      <c r="J493" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K493" t="b">
-        <v>1</v>
-      </c>
-      <c r="L493" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E493" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F493" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G493" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H493" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I493" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J493" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K493" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L493" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="494">
-      <c r="A494" t="n">
+      <c r="A494" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B494" t="inlineStr">
+      <c r="B494" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C494" t="inlineStr">
+      <c r="C494" s="2" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D494" t="n">
+      <c r="D494" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E494" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F494" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G494" t="b">
-        <v>1</v>
-      </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I494" t="b">
-        <v>1</v>
-      </c>
-      <c r="J494" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K494" t="b">
-        <v>1</v>
-      </c>
-      <c r="L494" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E494" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F494" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G494" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H494" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I494" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J494" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K494" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L494" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="495">
-      <c r="A495" t="n">
+      <c r="A495" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B495" t="inlineStr">
+      <c r="B495" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C495" t="inlineStr">
+      <c r="C495" s="2" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D495" t="n">
+      <c r="D495" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E495" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F495" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G495" t="b">
-        <v>1</v>
-      </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I495" t="b">
-        <v>1</v>
-      </c>
-      <c r="J495" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K495" t="b">
-        <v>1</v>
-      </c>
-      <c r="L495" t="inlineStr">
+      <c r="E495" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F495" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G495" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H495" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I495" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J495" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K495" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L495" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="496">
-      <c r="A496" t="n">
+      <c r="A496" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B496" t="inlineStr">
+      <c r="B496" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C496" t="inlineStr">
+      <c r="C496" s="2" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D496" t="n">
+      <c r="D496" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E496" t="inlineStr">
+      <c r="E496" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F496" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G496" t="b">
-        <v>1</v>
-      </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I496" t="b">
-        <v>1</v>
-      </c>
-      <c r="J496" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K496" t="b">
-        <v>1</v>
-      </c>
-      <c r="L496" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F496" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G496" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H496" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I496" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J496" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K496" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L496" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
